--- a/input/input_example_imperial.xlsx
+++ b/input/input_example_imperial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Shortcuts\Documents\GitHub\engine-sizing\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AB10BE-0303-4EC9-AA49-84F09630AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689DD875-A5E0-4C05-BBF9-116377C0C043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Definition" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="158">
   <si>
     <t>Run Description:</t>
   </si>
@@ -895,13 +895,16 @@
     <t>normal</t>
   </si>
   <si>
-    <t>bell</t>
-  </si>
-  <si>
     <t>percent of conical nozzle length when bell is enabled (leave this alone)</t>
   </si>
   <si>
     <t>contraction</t>
+  </si>
+  <si>
+    <t>C8H18,isooctane</t>
+  </si>
+  <si>
+    <t>conical</t>
   </si>
 </sst>
 </file>
@@ -1382,6 +1385,8 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1421,11 +1426,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1967,7 +1970,7 @@
   <dimension ref="A1:O44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1990,24 +1993,24 @@
     <col min="16" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:15" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="57" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56"/>
-    </row>
-    <row r="3" spans="1:15" s="59" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+    <row r="2" spans="1:15" s="59" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="58"/>
+    </row>
+    <row r="3" spans="1:15" s="61" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="60"/>
     </row>
     <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="5" spans="1:15" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="17"/>
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2034,7 +2037,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="43">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="19" t="s">
         <v>21</v>
@@ -2048,7 +2051,7 @@
         <v>129</v>
       </c>
       <c r="C9" s="44">
-        <v>1200</v>
+        <v>170</v>
       </c>
       <c r="D9" s="14" t="s">
         <v>22</v>
@@ -2074,7 +2077,7 @@
         <v>128</v>
       </c>
       <c r="C10" s="33">
-        <v>2</v>
+        <v>10.5</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>22</v>
@@ -2086,7 +2089,7 @@
         <v>37</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="25" t="s">
@@ -2096,7 +2099,7 @@
         <v>44</v>
       </c>
       <c r="M10" s="34" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N10" s="14"/>
       <c r="O10" s="5" t="s">
@@ -2140,7 +2143,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="34">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>11</v>
@@ -2151,7 +2154,9 @@
       <c r="G12" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="34"/>
+      <c r="H12" s="34" t="s">
+        <v>156</v>
+      </c>
       <c r="I12" s="14"/>
       <c r="J12" s="25" t="s">
         <v>40</v>
@@ -2160,7 +2165,7 @@
         <v>96</v>
       </c>
       <c r="M12" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="N12" s="14"/>
       <c r="O12" s="5" t="s">
@@ -2172,7 +2177,7 @@
         <v>34</v>
       </c>
       <c r="C13" s="34">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>11</v>
@@ -2184,7 +2189,7 @@
         <v>41</v>
       </c>
       <c r="H13" s="34">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="I13" s="14" t="s">
         <v>11</v>
@@ -2209,7 +2214,7 @@
         <v>43</v>
       </c>
       <c r="H14" s="33">
-        <v>6</v>
+        <v>1.33</v>
       </c>
       <c r="I14" s="14"/>
       <c r="J14" s="25" t="s">
@@ -2227,7 +2232,7 @@
         <v>45</v>
       </c>
       <c r="M15" s="34">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N15" s="14" t="s">
         <v>13</v>
@@ -2237,12 +2242,12 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="66" t="s">
+      <c r="B16" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
       <c r="G16" s="20" t="s">
         <v>60</v>
       </c>
@@ -2253,7 +2258,7 @@
         <v>123</v>
       </c>
       <c r="M16" s="34">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="N16" s="14" t="s">
         <v>17</v>
@@ -2263,10 +2268,10 @@
       </c>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
       <c r="G17" s="14" t="s">
         <v>124</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>54</v>
       </c>
       <c r="M17" s="34">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="N17" s="14"/>
       <c r="O17" s="25" t="s">
@@ -2323,18 +2328,18 @@
       </c>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="66" t="s">
+      <c r="G20" s="68" t="s">
         <v>115</v>
       </c>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="66"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
     </row>
     <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-      <c r="I21" s="66"/>
-      <c r="J21" s="66"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
       <c r="L21" s="20" t="s">
         <v>53</v>
       </c>
@@ -2353,7 +2358,7 @@
         <v>11</v>
       </c>
       <c r="O22" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2366,12 +2371,12 @@
       <c r="M23" s="35"/>
     </row>
     <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G24" s="68" t="s">
+      <c r="G24" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="69"/>
       <c r="L24" s="20" t="s">
         <v>52</v>
       </c>
@@ -2381,10 +2386,10 @@
     </row>
     <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="23"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="64"/>
-      <c r="J25" s="64"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="66"/>
+      <c r="J25" s="66"/>
       <c r="L25" s="14" t="s">
         <v>116</v>
       </c>
@@ -2399,10 +2404,10 @@
       </c>
     </row>
     <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G26" s="64"/>
-      <c r="H26" s="64"/>
-      <c r="I26" s="64"/>
-      <c r="J26" s="64"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
       <c r="L26" s="26" t="s">
         <v>117</v>
       </c>
@@ -2437,101 +2442,101 @@
       <c r="G28" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="69" t="s">
+      <c r="H28" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="I28" s="69"/>
-      <c r="J28" s="69"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G29" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H29" s="67" t="s">
+      <c r="H29" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="L29" s="66" t="s">
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="L29" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
     </row>
     <row r="30" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G30" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H30" s="67" t="s">
+      <c r="H30" s="54" t="s">
         <v>78</v>
       </c>
-      <c r="I30" s="67"/>
-      <c r="J30" s="67"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
+      <c r="O30" s="68"/>
     </row>
     <row r="31" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G31" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="67" t="s">
+      <c r="H31" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
     </row>
     <row r="32" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G32" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H32" s="67" t="s">
+      <c r="H32" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="I32" s="67"/>
-      <c r="J32" s="67"/>
-      <c r="L32" s="66" t="s">
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="L32" s="68" t="s">
         <v>145</v>
       </c>
-      <c r="M32" s="66"/>
-      <c r="N32" s="66"/>
-      <c r="O32" s="66"/>
+      <c r="M32" s="68"/>
+      <c r="N32" s="68"/>
+      <c r="O32" s="68"/>
     </row>
     <row r="33" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G33" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="H33" s="67" t="s">
+      <c r="H33" s="54" t="s">
         <v>81</v>
       </c>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
     </row>
     <row r="34" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G34" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H34" s="67" t="s">
+      <c r="H34" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="67"/>
-      <c r="J34" s="67"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
       <c r="O34" s="15"/>
     </row>
     <row r="35" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="L35" s="66"/>
-      <c r="M35" s="66"/>
-      <c r="N35" s="66"/>
-      <c r="O35" s="66"/>
+      <c r="L35" s="68"/>
+      <c r="M35" s="68"/>
+      <c r="N35" s="68"/>
+      <c r="O35" s="68"/>
     </row>
     <row r="36" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G36" s="20" t="s">
@@ -2540,88 +2545,83 @@
       <c r="H36" s="21"/>
       <c r="I36" s="21"/>
       <c r="J36" s="22"/>
-      <c r="L36" s="66"/>
-      <c r="M36" s="66"/>
-      <c r="N36" s="66"/>
-      <c r="O36" s="66"/>
+      <c r="L36" s="68"/>
+      <c r="M36" s="68"/>
+      <c r="N36" s="68"/>
+      <c r="O36" s="68"/>
     </row>
     <row r="37" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G37" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H37" s="69" t="s">
+      <c r="H37" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="I37" s="69"/>
-      <c r="J37" s="69"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
       <c r="N37" s="15"/>
       <c r="O37" s="15"/>
     </row>
     <row r="38" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
       <c r="G38" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H38" s="67" t="s">
+      <c r="H38" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="I38" s="67"/>
-      <c r="J38" s="67"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
     </row>
     <row r="39" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
       <c r="G39" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="67" t="s">
+      <c r="H39" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
     </row>
     <row r="40" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
+      <c r="B40" s="67"/>
+      <c r="C40" s="67"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="67"/>
       <c r="G40" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="67" t="s">
+      <c r="H40" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="I40" s="67"/>
-      <c r="J40" s="67"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G43" s="60"/>
-      <c r="H43" s="60"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="60"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
-      <c r="J44" s="60"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="G43:J44"/>
     <mergeCell ref="B5:D5"/>
@@ -2638,6 +2638,11 @@
     <mergeCell ref="H30:J30"/>
     <mergeCell ref="H31:J31"/>
     <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
